--- a/results/Homeopathy_excluded/mod2.lrecon.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod2.lrecon.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.062043144416457</v>
+        <v>-0.0620425706044901</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0350929852278264</v>
+        <v>0.0350929641827428</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.130824131572993</v>
+        <v>-0.13082351651342</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00673784274007891</v>
+        <v>0.00673837530443982</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.76796428156989</v>
+        <v>-1.76794899061277</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0770668751408397</v>
+        <v>0.0770694316300881</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0293758504355614</v>
+        <v>-0.0293766431748721</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0376188515908027</v>
+        <v>0.0376188639431196</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.103107444693292</v>
+        <v>-0.103108261642699</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0443557438221691</v>
+        <v>0.0443549752929548</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.780881105970377</v>
+        <v>-0.780901922484691</v>
       </c>
       <c r="H3" t="n">
-        <v>0.434872425576773</v>
+        <v>0.434860181289319</v>
       </c>
     </row>
   </sheetData>
